--- a/un-admin-server/src/main/resources/static/Seat_Chart_Template.xlsx
+++ b/un-admin-server/src/main/resources/static/Seat_Chart_Template.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC0BCF9-6C53-4361-82ED-ACC5D1E86718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="22.04.2021" sheetId="32" r:id="rId1"/>
+    <sheet name="sheet-chart" sheetId="32" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Sl.No.</t>
   </si>
@@ -37,25 +38,6 @@
     <t>ROW-6</t>
   </si>
   <si>
-    <t>INVIGILATORS</t>
-  </si>
-  <si>
-    <t>PRESENT=</t>
-  </si>
-  <si>
-    <t>ABSENT  =</t>
-  </si>
-  <si>
-    <t>EXAMINATION IN CHARGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL    = </t>
-  </si>
-  <si>
-    <t>REGULAR
-TOTAL       -</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Form No.UNC-Auto-Exam-02                  SEAT CHART                     CONFIDENTIAL
                             UDAYANATH AUTONOMOUS COLLEGE OF SC.&amp; TECH. 
@@ -209,8 +191,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,7 +306,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -348,15 +330,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -373,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -400,20 +373,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -421,6 +393,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -467,7 +447,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,9 +479,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -533,6 +531,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -708,33 +724,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="9" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.7265625" customWidth="1"/>
+    <col min="2" max="6" width="13.7265625" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" customWidth="1"/>
+    <col min="8" max="9" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="124.5" customHeight="1">
-      <c r="A1" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -757,117 +773,117 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A3" s="17">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="17">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="17">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A6" s="17">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A7" s="17">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A8" s="17">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A9" s="17">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A10" s="17">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -878,7 +894,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1">
+    <row r="14" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -889,7 +905,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1">
+    <row r="15" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -900,7 +916,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1">
+    <row r="16" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -912,7 +928,7 @@
       <c r="G16" s="1"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="1:7" s="5" customFormat="1" ht="20.25" customHeight="1">
+    <row r="17" spans="1:7" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -923,7 +939,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:7" s="5" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -934,7 +950,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:7" s="5" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -945,7 +961,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:7" s="5" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -956,7 +972,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:7" s="5" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -967,7 +983,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:7" s="5" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -978,76 +994,53 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" ht="15.75">
-      <c r="A23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>12</v>
-      </c>
+    <row r="23" spans="1:7" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="11"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="19"/>
-      <c r="G23" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" ht="15.75">
-      <c r="A24" s="13">
-        <v>1</v>
-      </c>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="13"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
-      <c r="G24" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" ht="15.75">
-      <c r="A25" s="13">
-        <v>2</v>
-      </c>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="13"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
-      <c r="G25" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="5" customFormat="1" ht="15.75">
-      <c r="A26" s="13">
-        <v>3</v>
-      </c>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="13"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
     </row>
-    <row r="27" spans="1:7" s="5" customFormat="1" ht="15.75">
-      <c r="A27" s="13">
-        <v>4</v>
-      </c>
+    <row r="27" spans="1:7" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="13"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
     </row>
-    <row r="28" spans="1:7" s="5" customFormat="1" ht="15.75">
-      <c r="A28" s="13">
-        <v>5</v>
-      </c>
+    <row r="28" spans="1:7" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="13"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
     </row>
-    <row r="29" spans="1:7" s="5" customFormat="1" ht="18.75">
-      <c r="A29" s="15"/>
+    <row r="29" spans="1:7" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="14"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
     </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" ht="18.75">
-      <c r="A30" s="15"/>
+    <row r="30" spans="1:7" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="14"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
-      <c r="F30" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="F30" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D23:E30"/>
   </mergeCells>
   <pageMargins left="0.6" right="0.2" top="0.75" bottom="0.37" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/un-admin-server/src/main/resources/static/Seat_Chart_Template.xlsx
+++ b/un-admin-server/src/main/resources/static/Seat_Chart_Template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC0BCF9-6C53-4361-82ED-ACC5D1E86718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDF55A3-1153-4E3B-B2D3-997C86FE442D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">3RD SEMESTER EXAMINATIONS -2021 </t>
+      <t>3RD SEMESTER EXAMINATIONS -2021</t>
     </r>
     <r>
       <rPr>
@@ -63,7 +63,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Subject: </t>
+Subject:  </t>
     </r>
     <r>
       <rPr>
@@ -75,16 +75,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>+3 SCIENCE 2ND YEAR</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
@@ -192,7 +182,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,13 +260,6 @@
     </font>
     <font>
       <sz val="13"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -381,11 +364,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,27 +711,31 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.7265625" customWidth="1"/>
-    <col min="2" max="6" width="13.7265625" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
     <col min="8" max="9" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="145" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -996,46 +983,46 @@
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
       <c r="G23" s="12"/>
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="13"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
       <c r="G24" s="12"/>
     </row>
     <row r="25" spans="1:7" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="13"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
       <c r="G25" s="12"/>
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="13"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:7" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="13"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
     </row>
     <row r="28" spans="1:7" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="13"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:7" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A29" s="14"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:7" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A30" s="14"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="15"/>
     </row>
   </sheetData>

--- a/un-admin-server/src/main/resources/static/Seat_Chart_Template.xlsx
+++ b/un-admin-server/src/main/resources/static/Seat_Chart_Template.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDF55A3-1153-4E3B-B2D3-997C86FE442D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E95D27F-7219-4919-8A28-E87BE0EF87C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,27 +63,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Subject:  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+3 SCIENCE 2ND YEAR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                      Room No- </t>
+Subject:  ..............................................                      Room No- </t>
     </r>
     <r>
       <rPr>
@@ -113,27 +93,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Paper: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HONS-CORE-V, (PHY/CHE)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Date-</t>
+      <t>Paper: .........................., Date-</t>
     </r>
     <r>
       <rPr>
@@ -153,18 +113,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, Sitting- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1ST (10.00 AM-1.00 PM)</t>
+      <t>, Sitting- .....................................</t>
     </r>
     <r>
       <rPr>
@@ -711,7 +660,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
